--- a/all_annotated/CVU_Q3_2019_3.xlsx
+++ b/all_annotated/CVU_Q3_2019_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmand\Desktop\CS\VIP\SubjECTive-QA\Tarun-annotations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/all_annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B3CF99-60B0-41E1-9523-EB0BC44B33D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D2125-EC08-9443-A7F3-9CD6F6982ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="4455" windowWidth="19170" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3640" yWindow="4600" windowWidth="19180" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>asker</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Vincent Palazzolo</t>
-  </si>
-  <si>
-    <t>I just wanted to first ask on the third quarter on the gross margins, was there anything else besides the $400,000 you called out in unusual expenses associated with WMI that could have been a headwind in the quarter? I'm just trying to get a sense if there was anything else flowing through from legacy CPI or anything else from an execution standpoint we should be thinking about.</t>
   </si>
   <si>
     <t>Douglas McCrosson</t>
@@ -135,6 +132,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -479,15 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,50 +517,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -574,91 +572,91 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -670,91 +668,91 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -769,41 +767,9 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
         <v>1</v>
       </c>
     </row>
